--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_10pct/Rankings/estadisticos_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_10pct/Rankings/estadisticos_Lineal_Estacionario_ARMA.xlsx
@@ -58,16 +58,16 @@
     <t>LSPM</t>
   </si>
   <si>
+    <t>LSPMW</t>
+  </si>
+  <si>
+    <t>EnCQR-LSTM</t>
+  </si>
+  <si>
     <t>Block Bootstrapping</t>
   </si>
   <si>
     <t>AREPD</t>
-  </si>
-  <si>
-    <t>LSPMW</t>
-  </si>
-  <si>
-    <t>EnCQR-LSTM</t>
   </si>
 </sst>
 </file>
@@ -465,28 +465,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>0.5471930303679644</v>
+        <v>0.5484291154288146</v>
       </c>
       <c r="C2">
-        <v>0.4826800655050667</v>
+        <v>0.4835210506931397</v>
       </c>
       <c r="D2">
-        <v>0.2739154620536701</v>
+        <v>0.275211988703325</v>
       </c>
       <c r="E2">
-        <v>0.5005828781654499</v>
+        <v>0.5018187053911932</v>
       </c>
       <c r="F2">
-        <v>0.2120948406433139</v>
+        <v>0.2109952552273182</v>
       </c>
       <c r="G2">
-        <v>1.353723628949077</v>
+        <v>1.397565306172924</v>
       </c>
       <c r="H2">
-        <v>0.342961841889872</v>
+        <v>0.335439432030081</v>
       </c>
       <c r="I2">
-        <v>0.8227980876027134</v>
+        <v>0.8170065363988098</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -494,28 +494,28 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.5783829906540999</v>
+        <v>0.5734109224053913</v>
       </c>
       <c r="C3">
-        <v>0.5358865406688833</v>
+        <v>0.5165116565404513</v>
       </c>
       <c r="D3">
-        <v>0.2916282391750173</v>
+        <v>0.2934126009097565</v>
       </c>
       <c r="E3">
-        <v>0.5042130281964406</v>
+        <v>0.5116969165479535</v>
       </c>
       <c r="F3">
-        <v>0.2168118580346489</v>
+        <v>0.2148829640731117</v>
       </c>
       <c r="G3">
-        <v>1.700742865414971</v>
+        <v>2.656883741112902</v>
       </c>
       <c r="H3">
-        <v>0.3561882988926107</v>
+        <v>0.3634160699622815</v>
       </c>
       <c r="I3">
-        <v>0.8740384553680501</v>
+        <v>0.8714189130615629</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -523,28 +523,28 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.6968925570908137</v>
+        <v>0.7098847989387026</v>
       </c>
       <c r="C4">
-        <v>0.6101323446336733</v>
+        <v>0.598134263030753</v>
       </c>
       <c r="D4">
-        <v>0.3792485378058986</v>
+        <v>0.4246815359221154</v>
       </c>
       <c r="E4">
-        <v>0.5441994378431536</v>
+        <v>0.5982400757940246</v>
       </c>
       <c r="F4">
-        <v>0.2274161573371865</v>
+        <v>0.2222807382378933</v>
       </c>
       <c r="G4">
-        <v>3.063439588602693</v>
+        <v>5.21878554618225</v>
       </c>
       <c r="H4">
-        <v>0.4131224936122038</v>
+        <v>0.408745871405123</v>
       </c>
       <c r="I4">
-        <v>0.9997282935966372</v>
+        <v>1.010502999084357</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -552,28 +552,28 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.7042596075429847</v>
+        <v>0.7277521190400923</v>
       </c>
       <c r="C5">
-        <v>0.6007975233871421</v>
+        <v>0.6119644136515774</v>
       </c>
       <c r="D5">
-        <v>0.3989322345627129</v>
+        <v>0.4518418773722598</v>
       </c>
       <c r="E5">
-        <v>0.5664562191128701</v>
+        <v>0.6208733242415575</v>
       </c>
       <c r="F5">
-        <v>0.2194387672562912</v>
+        <v>0.2232000785510934</v>
       </c>
       <c r="G5">
-        <v>2.477148356687312</v>
+        <v>6.109103145219193</v>
       </c>
       <c r="H5">
-        <v>0.408976986883497</v>
+        <v>0.4171664755093094</v>
       </c>
       <c r="I5">
-        <v>0.9991083373188118</v>
+        <v>1.017595623184216</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -581,28 +581,28 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.7387023721458145</v>
+        <v>0.762716592135144</v>
       </c>
       <c r="C6">
-        <v>0.6066133899147429</v>
+        <v>0.6018100078245032</v>
       </c>
       <c r="D6">
-        <v>0.4943462625546467</v>
+        <v>0.537793978817067</v>
       </c>
       <c r="E6">
-        <v>0.6692089821217825</v>
+        <v>0.705103290478538</v>
       </c>
       <c r="F6">
-        <v>0.2226113548953597</v>
+        <v>0.21224787148615</v>
       </c>
       <c r="G6">
-        <v>4.804281543171579</v>
+        <v>5.074496512405348</v>
       </c>
       <c r="H6">
-        <v>0.4079553494139999</v>
+        <v>0.4047418968264271</v>
       </c>
       <c r="I6">
-        <v>0.9552846930952836</v>
+        <v>0.9882980649194282</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -610,28 +610,28 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.949922468317086</v>
+        <v>0.7686841038114228</v>
       </c>
       <c r="C7">
-        <v>0.6799948975092656</v>
+        <v>0.6038700404684305</v>
       </c>
       <c r="D7">
-        <v>0.7791513020914935</v>
+        <v>0.548483275917676</v>
       </c>
       <c r="E7">
-        <v>0.82022620590485</v>
+        <v>0.7135353433199556</v>
       </c>
       <c r="F7">
-        <v>0.2185379790597317</v>
+        <v>0.2128910361633576</v>
       </c>
       <c r="G7">
-        <v>5.101951051097184</v>
+        <v>5.217567624018883</v>
       </c>
       <c r="H7">
-        <v>0.4126096712264235</v>
+        <v>0.4056056959645172</v>
       </c>
       <c r="I7">
-        <v>1.130698656847907</v>
+        <v>0.9913939910237456</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -639,28 +639,28 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>0.9822850645938772</v>
+        <v>0.8592715581566811</v>
       </c>
       <c r="C8">
-        <v>0.6740391467194865</v>
+        <v>0.65908875184948</v>
       </c>
       <c r="D8">
-        <v>0.8392875530624244</v>
+        <v>0.6628853929483371</v>
       </c>
       <c r="E8">
-        <v>0.8544236121613284</v>
+        <v>0.7714504066332257</v>
       </c>
       <c r="F8">
-        <v>0.2184672420395343</v>
+        <v>0.220388559268301</v>
       </c>
       <c r="G8">
-        <v>5.609824044390797</v>
+        <v>6.742893888256739</v>
       </c>
       <c r="H8">
-        <v>0.4519223760963543</v>
+        <v>0.4220636970310732</v>
       </c>
       <c r="I8">
-        <v>1.131929586585078</v>
+        <v>1.079062935704691</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -668,28 +668,28 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>1.037248148680896</v>
+        <v>0.907210222142919</v>
       </c>
       <c r="C9">
-        <v>0.6799870849624674</v>
+        <v>0.6524890012368034</v>
       </c>
       <c r="D9">
-        <v>0.9696280885465992</v>
+        <v>0.8101311013242493</v>
       </c>
       <c r="E9">
-        <v>0.9348082132320108</v>
+        <v>0.8929915928533527</v>
       </c>
       <c r="F9">
-        <v>0.2145170893444929</v>
+        <v>0.2154366853056418</v>
       </c>
       <c r="G9">
-        <v>6.520374278009443</v>
+        <v>10.29703672635617</v>
       </c>
       <c r="H9">
-        <v>0.4207942778069949</v>
+        <v>0.4182098995367249</v>
       </c>
       <c r="I9">
-        <v>1.23293921974726</v>
+        <v>1.076322620392659</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -697,28 +697,28 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>1.101937960109198</v>
+        <v>0.9242434926832448</v>
       </c>
       <c r="C10">
-        <v>0.8886159092971646</v>
+        <v>0.663410881999738</v>
       </c>
       <c r="D10">
-        <v>0.614600655343763</v>
+        <v>0.7976714376675159</v>
       </c>
       <c r="E10">
-        <v>0.5577452430106484</v>
+        <v>0.8630533446892145</v>
       </c>
       <c r="F10">
-        <v>0.3210257840485378</v>
+        <v>0.2229458344215285</v>
       </c>
       <c r="G10">
-        <v>3.120414627126916</v>
+        <v>8.993600098302643</v>
       </c>
       <c r="H10">
-        <v>0.6006364190689072</v>
+        <v>0.4388420565806647</v>
       </c>
       <c r="I10">
-        <v>1.448482899955317</v>
+        <v>1.103806174426503</v>
       </c>
     </row>
   </sheetData>
